--- a/Code/Results/Cases/Case_5_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_140/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.314610497381125</v>
+        <v>1.775537327644599</v>
       </c>
       <c r="C2">
-        <v>0.9087191795261731</v>
+        <v>0.2726853044468669</v>
       </c>
       <c r="D2">
-        <v>0.03390289123853663</v>
+        <v>0.08119606441675487</v>
       </c>
       <c r="E2">
-        <v>0.03460954813634487</v>
+        <v>0.05107260235544597</v>
       </c>
       <c r="F2">
-        <v>1.839274693008733</v>
+        <v>1.904377458661031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9729423841989941</v>
+        <v>1.389428456148138</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.173640937418881</v>
+        <v>0.2189841073584375</v>
       </c>
       <c r="M2">
-        <v>0.5410780425928223</v>
+        <v>0.3570734750569073</v>
       </c>
       <c r="N2">
-        <v>0.9347979686469614</v>
+        <v>1.869836136567365</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.873990182696105</v>
+        <v>1.666964319022725</v>
       </c>
       <c r="C3">
-        <v>0.7832599640086357</v>
+        <v>0.237957907749319</v>
       </c>
       <c r="D3">
-        <v>0.03596078172252426</v>
+        <v>0.0820589068039741</v>
       </c>
       <c r="E3">
-        <v>0.03283447118894767</v>
+        <v>0.05048635519244993</v>
       </c>
       <c r="F3">
-        <v>1.666612154139457</v>
+        <v>1.874001328707891</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9145897257873159</v>
+        <v>1.384372155566005</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.157250694648269</v>
+        <v>0.2161868950077377</v>
       </c>
       <c r="M3">
-        <v>0.4718306377354935</v>
+        <v>0.3408409847153564</v>
       </c>
       <c r="N3">
-        <v>0.9855919052965731</v>
+        <v>1.889697917550571</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.607398999938312</v>
+        <v>1.601271572767757</v>
       </c>
       <c r="C4">
-        <v>0.7072810976521851</v>
+        <v>0.2166670114999931</v>
       </c>
       <c r="D4">
-        <v>0.03729251876537276</v>
+        <v>0.08261722630306423</v>
       </c>
       <c r="E4">
-        <v>0.03175520505488549</v>
+        <v>0.05011974870084313</v>
       </c>
       <c r="F4">
-        <v>1.564716808250964</v>
+        <v>1.856591702773073</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8810571938911167</v>
+        <v>1.38206801549984</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1474635637890529</v>
+        <v>0.2145839486543437</v>
       </c>
       <c r="M4">
-        <v>0.4300175330808216</v>
+        <v>0.3310786735456759</v>
       </c>
       <c r="N4">
-        <v>1.018443221269308</v>
+        <v>1.902560060508286</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.499622479260495</v>
+        <v>1.574744687005307</v>
       </c>
       <c r="C5">
-        <v>0.676540804307308</v>
+        <v>0.2079981795276922</v>
       </c>
       <c r="D5">
-        <v>0.03785146761640767</v>
+        <v>0.0828519066576181</v>
       </c>
       <c r="E5">
-        <v>0.03131733959321359</v>
+        <v>0.04996866713594539</v>
       </c>
       <c r="F5">
-        <v>1.524131303631634</v>
+        <v>1.849807918807059</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8679227247803354</v>
+        <v>1.381329678822837</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.143538552007449</v>
+        <v>0.2139595162056267</v>
       </c>
       <c r="M5">
-        <v>0.4131340568381603</v>
+        <v>0.3271517463758897</v>
       </c>
       <c r="N5">
-        <v>1.032230367866532</v>
+        <v>1.907968852603943</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.481774646038843</v>
+        <v>1.570354596775928</v>
       </c>
       <c r="C6">
-        <v>0.6714485972267994</v>
+        <v>0.2065591540626883</v>
       </c>
       <c r="D6">
-        <v>0.03794523806419292</v>
+        <v>0.08289130724132576</v>
       </c>
       <c r="E6">
-        <v>0.03124472975853987</v>
+        <v>0.04994347787413567</v>
       </c>
       <c r="F6">
-        <v>1.51744601773305</v>
+        <v>1.848700206632486</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8657724796403059</v>
+        <v>1.381219176311511</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1428904587551898</v>
+        <v>0.2138575673135321</v>
       </c>
       <c r="M6">
-        <v>0.4103393739135086</v>
+        <v>0.3265027774379092</v>
       </c>
       <c r="N6">
-        <v>1.034543361742791</v>
+        <v>1.908877076931738</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.605942166529474</v>
+        <v>1.600912837343628</v>
       </c>
       <c r="C7">
-        <v>0.7068656801215525</v>
+        <v>0.2165500715386486</v>
       </c>
       <c r="D7">
-        <v>0.03729999224024105</v>
+        <v>0.08262036230929404</v>
       </c>
       <c r="E7">
-        <v>0.03174929289083117</v>
+        <v>0.05011771800912701</v>
       </c>
       <c r="F7">
-        <v>1.564165785612701</v>
+        <v>1.856498957802486</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8808779701547351</v>
+        <v>1.382057246618885</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1474103811782683</v>
+        <v>0.2145754108366305</v>
       </c>
       <c r="M7">
-        <v>0.4297892334662308</v>
+        <v>0.3310255061156369</v>
       </c>
       <c r="N7">
-        <v>1.018627563256494</v>
+        <v>1.90263232818549</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.161781434879117</v>
+        <v>1.737899156216145</v>
       </c>
       <c r="C8">
-        <v>0.8652149566027845</v>
+        <v>0.2607042924405221</v>
       </c>
       <c r="D8">
-        <v>0.03459773612998696</v>
+        <v>0.0814876426940554</v>
       </c>
       <c r="E8">
-        <v>0.03399483041833928</v>
+        <v>0.05087183522592653</v>
       </c>
       <c r="F8">
-        <v>1.778823718270985</v>
+        <v>1.893645253106669</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9523162278329806</v>
+        <v>1.387518506095006</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1679282842521417</v>
+        <v>0.2179958366475958</v>
       </c>
       <c r="M8">
-        <v>0.5170416247407346</v>
+        <v>0.3514339822397119</v>
       </c>
       <c r="N8">
-        <v>0.9519549000938241</v>
+        <v>1.876545853849045</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.289747046967079</v>
+        <v>2.014292829440024</v>
       </c>
       <c r="C9">
-        <v>1.186266742554437</v>
+        <v>0.3475762332720365</v>
       </c>
       <c r="D9">
-        <v>0.02988483351609617</v>
+        <v>0.07949335182825301</v>
       </c>
       <c r="E9">
-        <v>0.03852002342627436</v>
+        <v>0.05229861833653082</v>
       </c>
       <c r="F9">
-        <v>2.237365101001444</v>
+        <v>1.976408685374665</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.11297204079942</v>
+        <v>1.404611551402894</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2106676032800578</v>
+        <v>0.2256139871158211</v>
       </c>
       <c r="M9">
-        <v>0.6948178122671322</v>
+        <v>0.3930861333790787</v>
       </c>
       <c r="N9">
-        <v>0.8353207615135574</v>
+        <v>1.830696734479361</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.15194647571127</v>
+        <v>2.222193218714949</v>
       </c>
       <c r="C10">
-        <v>1.431966294165875</v>
+        <v>0.4116268267911209</v>
       </c>
       <c r="D10">
-        <v>0.02685178281396716</v>
+        <v>0.0781672914163849</v>
       </c>
       <c r="E10">
-        <v>0.04197857449949183</v>
+        <v>0.05331621465525238</v>
       </c>
       <c r="F10">
-        <v>2.604824053037134</v>
+        <v>2.043367976329051</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.247196124228509</v>
+        <v>1.421109830478997</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2440754241228831</v>
+        <v>0.2317696862633625</v>
       </c>
       <c r="M10">
-        <v>0.8311849115759173</v>
+        <v>0.4246980877480908</v>
       </c>
       <c r="N10">
-        <v>0.7596455514452813</v>
+        <v>1.800265418809268</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.554108399610982</v>
+        <v>2.317845775415549</v>
       </c>
       <c r="C11">
-        <v>1.546754498675398</v>
+        <v>0.4408257229050605</v>
       </c>
       <c r="D11">
-        <v>0.02558453966936369</v>
+        <v>0.07759441983867532</v>
       </c>
       <c r="E11">
-        <v>0.04359692566608686</v>
+        <v>0.05377272276942691</v>
       </c>
       <c r="F11">
-        <v>2.780593751313461</v>
+        <v>2.075189197488555</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.312712166974009</v>
+        <v>1.429481678669987</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2598319669919533</v>
+        <v>0.2346922070794193</v>
       </c>
       <c r="M11">
-        <v>0.8949037051388657</v>
+        <v>0.4393022136490856</v>
       </c>
       <c r="N11">
-        <v>0.7277588254813097</v>
+        <v>1.787132196650511</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.708080283579875</v>
+        <v>2.354223332982485</v>
       </c>
       <c r="C12">
-        <v>1.590740648114718</v>
+        <v>0.4518923121091802</v>
       </c>
       <c r="D12">
-        <v>0.02512277969725041</v>
+        <v>0.07738187074691361</v>
       </c>
       <c r="E12">
-        <v>0.04421780272888221</v>
+        <v>0.05394468751331338</v>
       </c>
       <c r="F12">
-        <v>2.848580216121519</v>
+        <v>2.087436555009475</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.33825251791761</v>
+        <v>1.432777340659172</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2658906300197543</v>
+        <v>0.2358165217105039</v>
       </c>
       <c r="M12">
-        <v>0.9193158955536447</v>
+        <v>0.4448648105816559</v>
       </c>
       <c r="N12">
-        <v>0.7160847078423842</v>
+        <v>1.782261500054588</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.674840512110563</v>
+        <v>2.346381819429325</v>
       </c>
       <c r="C13">
-        <v>1.581242923755326</v>
+        <v>0.4495084860094494</v>
       </c>
       <c r="D13">
-        <v>0.02522138801296592</v>
+        <v>0.07742745166445353</v>
       </c>
       <c r="E13">
-        <v>0.04408370045944565</v>
+        <v>0.05390769182810651</v>
       </c>
       <c r="F13">
-        <v>2.833871418540753</v>
+        <v>2.084790064028482</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.332717882159315</v>
+        <v>1.432061969808913</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.264581496433749</v>
+        <v>0.2355735961837553</v>
       </c>
       <c r="M13">
-        <v>0.9140449851131152</v>
+        <v>0.4436653651689895</v>
       </c>
       <c r="N13">
-        <v>0.7185804975026713</v>
+        <v>1.783305922603809</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.566740490115137</v>
+        <v>2.320835446167052</v>
       </c>
       <c r="C14">
-        <v>1.550362353233083</v>
+        <v>0.4417359814489146</v>
       </c>
       <c r="D14">
-        <v>0.02554617509778367</v>
+        <v>0.07757684530443321</v>
       </c>
       <c r="E14">
-        <v>0.04364783456234278</v>
+        <v>0.05378688845953228</v>
       </c>
       <c r="F14">
-        <v>2.786157288110132</v>
+        <v>2.076192830348106</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.314798182351794</v>
+        <v>1.429750296476712</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2603285013841656</v>
+        <v>0.2347843517767956</v>
       </c>
       <c r="M14">
-        <v>0.8969061798459705</v>
+        <v>0.4397592029118442</v>
       </c>
       <c r="N14">
-        <v>0.7267901369099832</v>
+        <v>1.786729423242072</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.50075317822342</v>
+        <v>2.305207903739813</v>
       </c>
       <c r="C15">
-        <v>1.531517313895222</v>
+        <v>0.4369763689801403</v>
       </c>
       <c r="D15">
-        <v>0.02574753874296754</v>
+        <v>0.07766892484906585</v>
       </c>
       <c r="E15">
-        <v>0.04338195214971208</v>
+        <v>0.0537127755191662</v>
       </c>
       <c r="F15">
-        <v>2.757122752953364</v>
+        <v>2.070952526134676</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.303919897039876</v>
+        <v>1.428350687586942</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2577357693300115</v>
+        <v>0.234303212519734</v>
       </c>
       <c r="M15">
-        <v>0.8864463635083339</v>
+        <v>0.4373707812380943</v>
       </c>
       <c r="N15">
-        <v>0.7318721001841055</v>
+        <v>1.788839787395887</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.125885148661041</v>
+        <v>2.215963872701252</v>
       </c>
       <c r="C16">
-        <v>1.42453230464065</v>
+        <v>0.4097199159260754</v>
       </c>
       <c r="D16">
-        <v>0.02693702307509049</v>
+        <v>0.07820534247217203</v>
       </c>
       <c r="E16">
-        <v>0.04187384619239864</v>
+        <v>0.05328625328719738</v>
       </c>
       <c r="F16">
-        <v>2.593525890834542</v>
+        <v>2.041315912135531</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.243011608554824</v>
+        <v>1.420580218374354</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2430579077725241</v>
+        <v>0.231581156119347</v>
       </c>
       <c r="M16">
-        <v>0.8270580271783956</v>
+        <v>0.4237481889710253</v>
       </c>
       <c r="N16">
-        <v>0.761783446648252</v>
+        <v>1.80113803405483</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.898631867108634</v>
+        <v>2.161492292326102</v>
       </c>
       <c r="C17">
-        <v>1.359730063063751</v>
+        <v>0.393015323111058</v>
       </c>
       <c r="D17">
-        <v>0.02769683706101134</v>
+        <v>0.07854220674381196</v>
       </c>
       <c r="E17">
-        <v>0.04096124831227144</v>
+        <v>0.05302296714042853</v>
       </c>
       <c r="F17">
-        <v>2.495496321243678</v>
+        <v>2.02348457130023</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.206848305929228</v>
+        <v>1.416035831370309</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2342045419426313</v>
+        <v>0.2299426037240266</v>
       </c>
       <c r="M17">
-        <v>0.791084281007727</v>
+        <v>0.4154485778649928</v>
       </c>
       <c r="N17">
-        <v>0.780807171554784</v>
+        <v>1.808864812694559</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.768840812969529</v>
+        <v>2.130263046645496</v>
       </c>
       <c r="C18">
-        <v>1.322735954832808</v>
+        <v>0.3834130732057588</v>
       </c>
       <c r="D18">
-        <v>0.02814431930823247</v>
+        <v>0.07873881860710874</v>
       </c>
       <c r="E18">
-        <v>0.04044047863707156</v>
+        <v>0.05287092842616126</v>
       </c>
       <c r="F18">
-        <v>2.439910202818524</v>
+        <v>2.013356470684556</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.186461608380938</v>
+        <v>1.413503549759852</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2291641778932103</v>
+        <v>0.2290116572579137</v>
       </c>
       <c r="M18">
-        <v>0.7705489659395113</v>
+        <v>0.4106959055676853</v>
       </c>
       <c r="N18">
-        <v>0.7919856399319229</v>
+        <v>1.813375865228167</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.725046469319636</v>
+        <v>2.119706739036985</v>
       </c>
       <c r="C19">
-        <v>1.310255815402058</v>
+        <v>0.3801628899207117</v>
       </c>
       <c r="D19">
-        <v>0.02829757084342255</v>
+        <v>0.07880587802525341</v>
       </c>
       <c r="E19">
-        <v>0.04026482083894045</v>
+        <v>0.05281934660947307</v>
       </c>
       <c r="F19">
-        <v>2.421221393862311</v>
+        <v>2.009949207314136</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.179627481548351</v>
+        <v>1.412660141456826</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2274661732697041</v>
+        <v>0.2286984297267622</v>
       </c>
       <c r="M19">
-        <v>0.7636216590454623</v>
+        <v>0.4090903418561993</v>
       </c>
       <c r="N19">
-        <v>0.7958100876369727</v>
+        <v>1.814914691756016</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.922726527473117</v>
+        <v>2.167280386493644</v>
       </c>
       <c r="C20">
-        <v>1.366598980827121</v>
+        <v>0.3947929513054191</v>
       </c>
       <c r="D20">
-        <v>0.02761485816836995</v>
+        <v>0.07850605119794452</v>
       </c>
       <c r="E20">
-        <v>0.04105795763268283</v>
+        <v>0.05305105674657717</v>
       </c>
       <c r="F20">
-        <v>2.505847871159375</v>
+        <v>2.025369487194155</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.210654542770328</v>
+        <v>1.416511145401927</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2351415512647748</v>
+        <v>0.2301158393733118</v>
       </c>
       <c r="M20">
-        <v>0.7948973390597303</v>
+        <v>0.4163299064315851</v>
       </c>
       <c r="N20">
-        <v>0.7787573403485197</v>
+        <v>1.808035365686578</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.59844426801186</v>
+        <v>2.328334792651333</v>
       </c>
       <c r="C21">
-        <v>1.559417928388598</v>
+        <v>0.4440186883259116</v>
       </c>
       <c r="D21">
-        <v>0.02545026857734278</v>
+        <v>0.07753284560891949</v>
       </c>
       <c r="E21">
-        <v>0.04377562696364201</v>
+        <v>0.0538223957729187</v>
       </c>
       <c r="F21">
-        <v>2.800131753682479</v>
+        <v>2.078712677140857</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.320041021910455</v>
+        <v>1.430425880590221</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2615751125734391</v>
+        <v>0.2350156934917607</v>
       </c>
       <c r="M21">
-        <v>0.9019322214356436</v>
+        <v>0.4409056586455051</v>
       </c>
       <c r="N21">
-        <v>0.7243675840160151</v>
+        <v>1.785721070759038</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.050010005280569</v>
+        <v>2.434503014865982</v>
       </c>
       <c r="C22">
-        <v>1.688505373949965</v>
+        <v>0.4762468422443931</v>
       </c>
       <c r="D22">
-        <v>0.02414231859887117</v>
+        <v>0.07692236755989512</v>
       </c>
       <c r="E22">
-        <v>0.04559957263772318</v>
+        <v>0.05432124290277862</v>
       </c>
       <c r="F22">
-        <v>3.000882729744632</v>
+        <v>2.114726622392283</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.395841986518676</v>
+        <v>1.440251412531339</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2793937046552344</v>
+        <v>0.2383207497939281</v>
       </c>
       <c r="M22">
-        <v>0.9735598203737226</v>
+        <v>0.4571558660696766</v>
       </c>
       <c r="N22">
-        <v>0.6911764283964459</v>
+        <v>1.771735458920524</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.807998726093103</v>
+        <v>2.377755429431261</v>
       </c>
       <c r="C23">
-        <v>1.619297191645899</v>
+        <v>0.4590406886941878</v>
       </c>
       <c r="D23">
-        <v>0.02482990639270355</v>
+        <v>0.07724584522838818</v>
       </c>
       <c r="E23">
-        <v>0.04462114154779329</v>
+        <v>0.05405547559004731</v>
       </c>
       <c r="F23">
-        <v>2.8928989679805</v>
+        <v>2.095399434385996</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.354958261934414</v>
+        <v>1.434940148256771</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2698297045767077</v>
+        <v>0.2365473672510348</v>
       </c>
       <c r="M23">
-        <v>0.9351626626144522</v>
+        <v>0.4484655178082164</v>
       </c>
       <c r="N23">
-        <v>0.7086625523852064</v>
+        <v>1.779144968058418</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.911830671800317</v>
+        <v>2.164663317616487</v>
       </c>
       <c r="C24">
-        <v>1.363492734616102</v>
+        <v>0.39398928115628</v>
       </c>
       <c r="D24">
-        <v>0.02765188778030669</v>
+        <v>0.07852238795122801</v>
       </c>
       <c r="E24">
-        <v>0.04101422333180693</v>
+        <v>0.0530383595298769</v>
       </c>
       <c r="F24">
-        <v>2.50116554352735</v>
+        <v>2.024516932556253</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.208932491165626</v>
+        <v>1.416296005725187</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2347177758585985</v>
+        <v>0.2300374850298965</v>
       </c>
       <c r="M24">
-        <v>0.7931730023211685</v>
+        <v>0.4159313989773707</v>
       </c>
       <c r="N24">
-        <v>0.7796833195342074</v>
+        <v>1.808410144339867</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.979539669400026</v>
+        <v>1.938679524494603</v>
       </c>
       <c r="C25">
-        <v>1.097958735763086</v>
+        <v>0.3240391843713155</v>
       </c>
       <c r="D25">
-        <v>0.03109019580175065</v>
+        <v>0.08000848297414542</v>
       </c>
       <c r="E25">
-        <v>0.03727712880106004</v>
+        <v>0.05191809749380738</v>
       </c>
       <c r="F25">
-        <v>2.10855427914413</v>
+        <v>1.952946163012044</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.066956130465144</v>
+        <v>1.399299058224926</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1987908795883584</v>
+        <v>0.2234552268838996</v>
       </c>
       <c r="M25">
-        <v>0.6458471923113862</v>
+        <v>0.3816418884016031</v>
       </c>
       <c r="N25">
-        <v>0.8652266889803713</v>
+        <v>1.842530103081927</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_140/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.775537327644599</v>
+        <v>3.314610497381182</v>
       </c>
       <c r="C2">
-        <v>0.2726853044468669</v>
+        <v>0.9087191795261162</v>
       </c>
       <c r="D2">
-        <v>0.08119606441675487</v>
+        <v>0.03390289123864143</v>
       </c>
       <c r="E2">
-        <v>0.05107260235544597</v>
+        <v>0.0346095481363573</v>
       </c>
       <c r="F2">
-        <v>1.904377458661031</v>
+        <v>1.839274693008733</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.389428456148138</v>
+        <v>0.9729423841990226</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2189841073584375</v>
+        <v>0.1736409374188881</v>
       </c>
       <c r="M2">
-        <v>0.3570734750569073</v>
+        <v>0.5410780425928294</v>
       </c>
       <c r="N2">
-        <v>1.869836136567365</v>
+        <v>0.9347979686470111</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.666964319022725</v>
+        <v>2.873990182696048</v>
       </c>
       <c r="C3">
-        <v>0.237957907749319</v>
+        <v>0.7832599640086926</v>
       </c>
       <c r="D3">
-        <v>0.0820589068039741</v>
+        <v>0.03596078172261841</v>
       </c>
       <c r="E3">
-        <v>0.05048635519244993</v>
+        <v>0.03283447118895477</v>
       </c>
       <c r="F3">
-        <v>1.874001328707891</v>
+        <v>1.666612154139429</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.384372155566005</v>
+        <v>0.9145897257873301</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2161868950077377</v>
+        <v>0.1572506946483117</v>
       </c>
       <c r="M3">
-        <v>0.3408409847153564</v>
+        <v>0.4718306377354651</v>
       </c>
       <c r="N3">
-        <v>1.889697917550571</v>
+        <v>0.9855919052965874</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.601271572767757</v>
+        <v>2.607398999938425</v>
       </c>
       <c r="C4">
-        <v>0.2166670114999931</v>
+        <v>0.7072810976521851</v>
       </c>
       <c r="D4">
-        <v>0.08261722630306423</v>
+        <v>0.03729251876549355</v>
       </c>
       <c r="E4">
-        <v>0.05011974870084313</v>
+        <v>0.03175520505488727</v>
       </c>
       <c r="F4">
-        <v>1.856591702773073</v>
+        <v>1.564716808250964</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.38206801549984</v>
+        <v>0.8810571938911167</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2145839486543437</v>
+        <v>0.1474635637890742</v>
       </c>
       <c r="M4">
-        <v>0.3310786735456759</v>
+        <v>0.4300175330808287</v>
       </c>
       <c r="N4">
-        <v>1.902560060508286</v>
+        <v>1.018443221269273</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.574744687005307</v>
+        <v>2.499622479260267</v>
       </c>
       <c r="C5">
-        <v>0.2079981795276922</v>
+        <v>0.6765408043073933</v>
       </c>
       <c r="D5">
-        <v>0.0828519066576181</v>
+        <v>0.03785146761648051</v>
       </c>
       <c r="E5">
-        <v>0.04996866713594539</v>
+        <v>0.03131733959319405</v>
       </c>
       <c r="F5">
-        <v>1.849807918807059</v>
+        <v>1.524131303631648</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.381329678822837</v>
+        <v>0.8679227247803425</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2139595162056267</v>
+        <v>0.1435385520076551</v>
       </c>
       <c r="M5">
-        <v>0.3271517463758897</v>
+        <v>0.4131340568381532</v>
       </c>
       <c r="N5">
-        <v>1.907968852603943</v>
+        <v>1.032230367866525</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.570354596775928</v>
+        <v>2.481774646038787</v>
       </c>
       <c r="C6">
-        <v>0.2065591540626883</v>
+        <v>0.6714485972270836</v>
       </c>
       <c r="D6">
-        <v>0.08289130724132576</v>
+        <v>0.03794523806421779</v>
       </c>
       <c r="E6">
-        <v>0.04994347787413567</v>
+        <v>0.0312447297585372</v>
       </c>
       <c r="F6">
-        <v>1.848700206632486</v>
+        <v>1.517446017733064</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.381219176311511</v>
+        <v>0.8657724796403272</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2138575673135321</v>
+        <v>0.1428904587551898</v>
       </c>
       <c r="M6">
-        <v>0.3265027774379092</v>
+        <v>0.4103393739135157</v>
       </c>
       <c r="N6">
-        <v>1.908877076931738</v>
+        <v>1.034543361742848</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.600912837343628</v>
+        <v>2.605942166529587</v>
       </c>
       <c r="C7">
-        <v>0.2165500715386486</v>
+        <v>0.7068656801216946</v>
       </c>
       <c r="D7">
-        <v>0.08262036230929404</v>
+        <v>0.03729999224024105</v>
       </c>
       <c r="E7">
-        <v>0.05011771800912701</v>
+        <v>0.03174929289085338</v>
       </c>
       <c r="F7">
-        <v>1.856498957802486</v>
+        <v>1.564165785612701</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.382057246618885</v>
+        <v>0.8808779701547564</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2145754108366305</v>
+        <v>0.1474103811783678</v>
       </c>
       <c r="M7">
-        <v>0.3310255061156369</v>
+        <v>0.4297892334662379</v>
       </c>
       <c r="N7">
-        <v>1.90263232818549</v>
+        <v>1.018627563256423</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.737899156216145</v>
+        <v>3.161781434879288</v>
       </c>
       <c r="C8">
-        <v>0.2607042924405221</v>
+        <v>0.865214956603154</v>
       </c>
       <c r="D8">
-        <v>0.0814876426940554</v>
+        <v>0.03459773613011308</v>
       </c>
       <c r="E8">
-        <v>0.05087183522592653</v>
+        <v>0.03399483041833928</v>
       </c>
       <c r="F8">
-        <v>1.893645253106669</v>
+        <v>1.778823718271013</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.387518506095006</v>
+        <v>0.9523162278329877</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2179958366475958</v>
+        <v>0.1679282842521062</v>
       </c>
       <c r="M8">
-        <v>0.3514339822397119</v>
+        <v>0.5170416247407275</v>
       </c>
       <c r="N8">
-        <v>1.876545853849045</v>
+        <v>0.9519549000938454</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.014292829440024</v>
+        <v>4.289747046967136</v>
       </c>
       <c r="C9">
-        <v>0.3475762332720365</v>
+        <v>1.186266742554494</v>
       </c>
       <c r="D9">
-        <v>0.07949335182825301</v>
+        <v>0.02988483351607663</v>
       </c>
       <c r="E9">
-        <v>0.05229861833653082</v>
+        <v>0.03852002342625305</v>
       </c>
       <c r="F9">
-        <v>1.976408685374665</v>
+        <v>2.237365101001444</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.404611551402894</v>
+        <v>1.112972040799406</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2256139871158211</v>
+        <v>0.2106676032800863</v>
       </c>
       <c r="M9">
-        <v>0.3930861333790787</v>
+        <v>0.6948178122671251</v>
       </c>
       <c r="N9">
-        <v>1.830696734479361</v>
+        <v>0.835320761513529</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.222193218714949</v>
+        <v>5.15194647571127</v>
       </c>
       <c r="C10">
-        <v>0.4116268267911209</v>
+        <v>1.431966294166102</v>
       </c>
       <c r="D10">
-        <v>0.0781672914163849</v>
+        <v>0.02685178281372735</v>
       </c>
       <c r="E10">
-        <v>0.05331621465525238</v>
+        <v>0.04197857449954689</v>
       </c>
       <c r="F10">
-        <v>2.043367976329051</v>
+        <v>2.604824053037163</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.421109830478997</v>
+        <v>1.247196124228495</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2317696862633625</v>
+        <v>0.2440754241228973</v>
       </c>
       <c r="M10">
-        <v>0.4246980877480908</v>
+        <v>0.8311849115759244</v>
       </c>
       <c r="N10">
-        <v>1.800265418809268</v>
+        <v>0.7596455514452742</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.317845775415549</v>
+        <v>5.554108399610982</v>
       </c>
       <c r="C11">
-        <v>0.4408257229050605</v>
+        <v>1.54675449867517</v>
       </c>
       <c r="D11">
-        <v>0.07759441983867532</v>
+        <v>0.02558453966936014</v>
       </c>
       <c r="E11">
-        <v>0.05377272276942691</v>
+        <v>0.04359692566608508</v>
       </c>
       <c r="F11">
-        <v>2.075189197488555</v>
+        <v>2.780593751313461</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.429481678669987</v>
+        <v>1.312712166974009</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2346922070794193</v>
+        <v>0.2598319669919817</v>
       </c>
       <c r="M11">
-        <v>0.4393022136490856</v>
+        <v>0.8949037051388586</v>
       </c>
       <c r="N11">
-        <v>1.787132196650511</v>
+        <v>0.7277588254812457</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.354223332982485</v>
+        <v>5.708080283579761</v>
       </c>
       <c r="C12">
-        <v>0.4518923121091802</v>
+        <v>1.59074064811432</v>
       </c>
       <c r="D12">
-        <v>0.07738187074691361</v>
+        <v>0.02512277969733034</v>
       </c>
       <c r="E12">
-        <v>0.05394468751331338</v>
+        <v>0.04421780272881293</v>
       </c>
       <c r="F12">
-        <v>2.087436555009475</v>
+        <v>2.848580216121491</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.432777340659172</v>
+        <v>1.33825251791761</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2358165217105039</v>
+        <v>0.2658906300197117</v>
       </c>
       <c r="M12">
-        <v>0.4448648105816559</v>
+        <v>0.9193158955536447</v>
       </c>
       <c r="N12">
-        <v>1.782261500054588</v>
+        <v>0.7160847078423558</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.346381819429325</v>
+        <v>5.67484051211045</v>
       </c>
       <c r="C13">
-        <v>0.4495084860094494</v>
+        <v>1.581242923755269</v>
       </c>
       <c r="D13">
-        <v>0.07742745166445353</v>
+        <v>0.02522138801293039</v>
       </c>
       <c r="E13">
-        <v>0.05390769182810651</v>
+        <v>0.04408370045952381</v>
       </c>
       <c r="F13">
-        <v>2.084790064028482</v>
+        <v>2.833871418540781</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.432061969808913</v>
+        <v>1.332717882159315</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2355735961837553</v>
+        <v>0.2645814964337774</v>
       </c>
       <c r="M13">
-        <v>0.4436653651689895</v>
+        <v>0.9140449851131365</v>
       </c>
       <c r="N13">
-        <v>1.783305922603809</v>
+        <v>0.7185804975026429</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.320835446167052</v>
+        <v>5.56674049011508</v>
       </c>
       <c r="C14">
-        <v>0.4417359814489146</v>
+        <v>1.550362353232799</v>
       </c>
       <c r="D14">
-        <v>0.07757684530443321</v>
+        <v>0.02554617509766999</v>
       </c>
       <c r="E14">
-        <v>0.05378688845953228</v>
+        <v>0.04364783456230903</v>
       </c>
       <c r="F14">
-        <v>2.076192830348106</v>
+        <v>2.786157288110132</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.429750296476712</v>
+        <v>1.314798182351794</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2347843517767956</v>
+        <v>0.2603285013841514</v>
       </c>
       <c r="M14">
-        <v>0.4397592029118442</v>
+        <v>0.8969061798459492</v>
       </c>
       <c r="N14">
-        <v>1.786729423242072</v>
+        <v>0.726790136909969</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.305207903739813</v>
+        <v>5.500753178223249</v>
       </c>
       <c r="C15">
-        <v>0.4369763689801403</v>
+        <v>1.531517313895279</v>
       </c>
       <c r="D15">
-        <v>0.07766892484906585</v>
+        <v>0.02574753874318425</v>
       </c>
       <c r="E15">
-        <v>0.0537127755191662</v>
+        <v>0.0433819521497103</v>
       </c>
       <c r="F15">
-        <v>2.070952526134676</v>
+        <v>2.757122752953393</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.428350687586942</v>
+        <v>1.303919897039876</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.234303212519734</v>
+        <v>0.2577357693299973</v>
       </c>
       <c r="M15">
-        <v>0.4373707812380943</v>
+        <v>0.8864463635083126</v>
       </c>
       <c r="N15">
-        <v>1.788839787395887</v>
+        <v>0.7318721001840345</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.215963872701252</v>
+        <v>5.125885148660984</v>
       </c>
       <c r="C16">
-        <v>0.4097199159260754</v>
+        <v>1.42453230464082</v>
       </c>
       <c r="D16">
-        <v>0.07820534247217203</v>
+        <v>0.02693702307508161</v>
       </c>
       <c r="E16">
-        <v>0.05328625328719738</v>
+        <v>0.04187384619239687</v>
       </c>
       <c r="F16">
-        <v>2.041315912135531</v>
+        <v>2.593525890834513</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.420580218374354</v>
+        <v>1.243011608554838</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.231581156119347</v>
+        <v>0.2430579077724957</v>
       </c>
       <c r="M16">
-        <v>0.4237481889710253</v>
+        <v>0.8270580271783885</v>
       </c>
       <c r="N16">
-        <v>1.80113803405483</v>
+        <v>0.7617834466482449</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.161492292326102</v>
+        <v>4.898631867108691</v>
       </c>
       <c r="C17">
-        <v>0.393015323111058</v>
+        <v>1.359730063063694</v>
       </c>
       <c r="D17">
-        <v>0.07854220674381196</v>
+        <v>0.02769683706089765</v>
       </c>
       <c r="E17">
-        <v>0.05302296714042853</v>
+        <v>0.04096124831229808</v>
       </c>
       <c r="F17">
-        <v>2.02348457130023</v>
+        <v>2.495496321243678</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.416035831370309</v>
+        <v>1.206848305929213</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2299426037240266</v>
+        <v>0.2342045419426029</v>
       </c>
       <c r="M17">
-        <v>0.4154485778649928</v>
+        <v>0.7910842810077199</v>
       </c>
       <c r="N17">
-        <v>1.808864812694559</v>
+        <v>0.7808071715547911</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.130263046645496</v>
+        <v>4.7688408129697</v>
       </c>
       <c r="C18">
-        <v>0.3834130732057588</v>
+        <v>1.322735954832581</v>
       </c>
       <c r="D18">
-        <v>0.07873881860710874</v>
+        <v>0.02814431930823602</v>
       </c>
       <c r="E18">
-        <v>0.05287092842616126</v>
+        <v>0.04044047863708222</v>
       </c>
       <c r="F18">
-        <v>2.013356470684556</v>
+        <v>2.439910202818552</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.413503549759852</v>
+        <v>1.186461608380952</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2290116572579137</v>
+        <v>0.2291641778931819</v>
       </c>
       <c r="M18">
-        <v>0.4106959055676853</v>
+        <v>0.7705489659395184</v>
       </c>
       <c r="N18">
-        <v>1.813375865228167</v>
+        <v>0.7919856399319158</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.119706739036985</v>
+        <v>4.725046469319523</v>
       </c>
       <c r="C19">
-        <v>0.3801628899207117</v>
+        <v>1.310255815402002</v>
       </c>
       <c r="D19">
-        <v>0.07880587802525341</v>
+        <v>0.02829757084330708</v>
       </c>
       <c r="E19">
-        <v>0.05281934660947307</v>
+        <v>0.0402648208389369</v>
       </c>
       <c r="F19">
-        <v>2.009949207314136</v>
+        <v>2.421221393862311</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.412660141456826</v>
+        <v>1.17962748154838</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2286984297267622</v>
+        <v>0.2274661732696188</v>
       </c>
       <c r="M19">
-        <v>0.4090903418561993</v>
+        <v>0.7636216590454694</v>
       </c>
       <c r="N19">
-        <v>1.814914691756016</v>
+        <v>0.7958100876369727</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.167280386493644</v>
+        <v>4.92272652747306</v>
       </c>
       <c r="C20">
-        <v>0.3947929513054191</v>
+        <v>1.366598980827177</v>
       </c>
       <c r="D20">
-        <v>0.07850605119794452</v>
+        <v>0.02761485816824205</v>
       </c>
       <c r="E20">
-        <v>0.05305105674657717</v>
+        <v>0.04105795763268283</v>
       </c>
       <c r="F20">
-        <v>2.025369487194155</v>
+        <v>2.505847871159375</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.416511145401927</v>
+        <v>1.210654542770328</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2301158393733118</v>
+        <v>0.2351415512649169</v>
       </c>
       <c r="M20">
-        <v>0.4163299064315851</v>
+        <v>0.7948973390597303</v>
       </c>
       <c r="N20">
-        <v>1.808035365686578</v>
+        <v>0.7787573403485126</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.328334792651333</v>
+        <v>5.598444268011747</v>
       </c>
       <c r="C21">
-        <v>0.4440186883259116</v>
+        <v>1.559417928388314</v>
       </c>
       <c r="D21">
-        <v>0.07753284560891949</v>
+        <v>0.02545026857733568</v>
       </c>
       <c r="E21">
-        <v>0.0538223957729187</v>
+        <v>0.04377562696361004</v>
       </c>
       <c r="F21">
-        <v>2.078712677140857</v>
+        <v>2.80013175368245</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.430425880590221</v>
+        <v>1.320041021910455</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2350156934917607</v>
+        <v>0.2615751125734818</v>
       </c>
       <c r="M21">
-        <v>0.4409056586455051</v>
+        <v>0.9019322214356222</v>
       </c>
       <c r="N21">
-        <v>1.785721070759038</v>
+        <v>0.7243675840160648</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.434503014865982</v>
+        <v>6.050010005280456</v>
       </c>
       <c r="C22">
-        <v>0.4762468422443931</v>
+        <v>1.688505373950079</v>
       </c>
       <c r="D22">
-        <v>0.07692236755989512</v>
+        <v>0.02414231859899907</v>
       </c>
       <c r="E22">
-        <v>0.05432124290277862</v>
+        <v>0.04559957263772496</v>
       </c>
       <c r="F22">
-        <v>2.114726622392283</v>
+        <v>3.000882729744603</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.440251412531339</v>
+        <v>1.39584198651869</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2383207497939281</v>
+        <v>0.2793937046552628</v>
       </c>
       <c r="M22">
-        <v>0.4571558660696766</v>
+        <v>0.9735598203737013</v>
       </c>
       <c r="N22">
-        <v>1.771735458920524</v>
+        <v>0.6911764283964743</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.377755429431261</v>
+        <v>5.807998726093103</v>
       </c>
       <c r="C23">
-        <v>0.4590406886941878</v>
+        <v>1.619297191645899</v>
       </c>
       <c r="D23">
-        <v>0.07724584522838818</v>
+        <v>0.02482990639257743</v>
       </c>
       <c r="E23">
-        <v>0.05405547559004731</v>
+        <v>0.04462114154779151</v>
       </c>
       <c r="F23">
-        <v>2.095399434385996</v>
+        <v>2.892898967980528</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.434940148256771</v>
+        <v>1.354958261934399</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2365473672510348</v>
+        <v>0.2698297045767646</v>
       </c>
       <c r="M23">
-        <v>0.4484655178082164</v>
+        <v>0.9351626626144665</v>
       </c>
       <c r="N23">
-        <v>1.779144968058418</v>
+        <v>0.7086625523852064</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.164663317616487</v>
+        <v>4.91183067180026</v>
       </c>
       <c r="C24">
-        <v>0.39398928115628</v>
+        <v>1.363492734616216</v>
       </c>
       <c r="D24">
-        <v>0.07852238795122801</v>
+        <v>0.02765188778039729</v>
       </c>
       <c r="E24">
-        <v>0.0530383595298769</v>
+        <v>0.04101422333184246</v>
       </c>
       <c r="F24">
-        <v>2.024516932556253</v>
+        <v>2.501165543527406</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.416296005725187</v>
+        <v>1.208932491165612</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2300374850298965</v>
+        <v>0.2347177758586128</v>
       </c>
       <c r="M24">
-        <v>0.4159313989773707</v>
+        <v>0.7931730023211685</v>
       </c>
       <c r="N24">
-        <v>1.808410144339867</v>
+        <v>0.7796833195342359</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.938679524494603</v>
+        <v>3.979539669400026</v>
       </c>
       <c r="C25">
-        <v>0.3240391843713155</v>
+        <v>1.097958735763086</v>
       </c>
       <c r="D25">
-        <v>0.08000848297414542</v>
+        <v>0.03109019580186079</v>
       </c>
       <c r="E25">
-        <v>0.05191809749380738</v>
+        <v>0.03727712880107248</v>
       </c>
       <c r="F25">
-        <v>1.952946163012044</v>
+        <v>2.108554279144158</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.399299058224926</v>
+        <v>1.066956130465144</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2234552268838996</v>
+        <v>0.1987908795884294</v>
       </c>
       <c r="M25">
-        <v>0.3816418884016031</v>
+        <v>0.6458471923114075</v>
       </c>
       <c r="N25">
-        <v>1.842530103081927</v>
+        <v>0.8652266889803144</v>
       </c>
       <c r="O25">
         <v>0</v>
